--- a/InputData/io-model/URPbIC/Union Representation Perc by ISIC Code.xlsx
+++ b/InputData/io-model/URPbIC/Union Representation Perc by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\URPbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/pa/io-model/urpbic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF088B62-E7B5-40D0-8FD5-09D79EE24E3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C81B01D-FEF0-F94A-A23B-05AF4B153BEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{111598D9-CA0B-488C-B665-0CB52396764C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{111598D9-CA0B-488C-B665-0CB52396764C}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -732,7 +732,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -790,6 +790,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1106,18 +1107,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A80408-5795-454F-9839-1063721C3DFB}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="25">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -1125,22 +1129,22 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>82</v>
       </c>
@@ -1162,19 +1166,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.85546875" customWidth="1"/>
-    <col min="2" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="58.83203125" customWidth="1"/>
+    <col min="2" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>72</v>
       </c>
@@ -1191,7 +1195,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>71</v>
       </c>
@@ -1201,7 +1205,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1225,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
@@ -1241,7 +1245,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1261,7 +1265,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -1281,7 +1285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1305,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1321,7 +1325,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1341,7 +1345,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1361,7 +1365,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -1381,7 +1385,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -1401,7 +1405,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1421,7 +1425,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1441,7 +1445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1461,7 +1465,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1481,7 +1485,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
@@ -1501,7 +1505,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
@@ -1521,7 +1525,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
@@ -1541,7 +1545,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>17</v>
       </c>
@@ -1561,7 +1565,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
@@ -1581,7 +1585,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1601,7 +1605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>20</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>21</v>
       </c>
@@ -1641,7 +1645,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1661,7 +1665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>23</v>
       </c>
@@ -1681,7 +1685,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>24</v>
       </c>
@@ -1701,7 +1705,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>25</v>
       </c>
@@ -1721,7 +1725,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1741,7 +1745,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>27</v>
       </c>
@@ -1761,7 +1765,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>28</v>
       </c>
@@ -1781,7 +1785,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
@@ -1791,7 +1795,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -1811,7 +1815,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>31</v>
       </c>
@@ -1831,7 +1835,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>32</v>
       </c>
@@ -1851,7 +1855,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>33</v>
       </c>
@@ -1871,7 +1875,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>34</v>
       </c>
@@ -1891,7 +1895,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>35</v>
       </c>
@@ -1911,7 +1915,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>36</v>
       </c>
@@ -1931,7 +1935,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>37</v>
       </c>
@@ -1951,7 +1955,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>38</v>
       </c>
@@ -1971,7 +1975,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>39</v>
       </c>
@@ -1991,7 +1995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>40</v>
       </c>
@@ -2011,7 +2015,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>41</v>
       </c>
@@ -2031,7 +2035,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>42</v>
       </c>
@@ -2051,7 +2055,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>43</v>
       </c>
@@ -2071,7 +2075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>44</v>
       </c>
@@ -2091,7 +2095,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>45</v>
       </c>
@@ -2111,7 +2115,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>46</v>
       </c>
@@ -2131,7 +2135,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>47</v>
       </c>
@@ -2151,7 +2155,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>48</v>
       </c>
@@ -2171,7 +2175,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>49</v>
       </c>
@@ -2191,7 +2195,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>50</v>
       </c>
@@ -2211,7 +2215,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>51</v>
       </c>
@@ -2231,7 +2235,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>52</v>
       </c>
@@ -2251,7 +2255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>53</v>
       </c>
@@ -2271,7 +2275,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>54</v>
       </c>
@@ -2291,7 +2295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>55</v>
       </c>
@@ -2311,7 +2315,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>56</v>
       </c>
@@ -2331,7 +2335,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>57</v>
       </c>
@@ -2351,7 +2355,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>58</v>
       </c>
@@ -2371,7 +2375,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>59</v>
       </c>
@@ -2391,7 +2395,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>60</v>
       </c>
@@ -2411,7 +2415,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
         <v>61</v>
       </c>
@@ -2431,7 +2435,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>62</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>63</v>
       </c>
@@ -2471,7 +2475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>64</v>
       </c>
@@ -2491,7 +2495,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>65</v>
       </c>
@@ -2511,7 +2515,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
         <v>66</v>
       </c>
@@ -2531,7 +2535,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -2551,7 +2555,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>68</v>
       </c>
@@ -2571,7 +2575,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>69</v>
       </c>
@@ -2591,7 +2595,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>70</v>
       </c>
@@ -2623,15 +2627,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="68.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="68.5" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>116</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>83</v>
       </c>
@@ -2661,7 +2665,7 @@
         <v>2.7999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>154</v>
       </c>
@@ -2677,7 +2681,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>153</v>
       </c>
@@ -2693,7 +2697,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>84</v>
       </c>
@@ -2709,7 +2713,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>85</v>
       </c>
@@ -2725,7 +2729,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>86</v>
       </c>
@@ -2741,7 +2745,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>87</v>
       </c>
@@ -2757,7 +2761,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>88</v>
       </c>
@@ -2773,7 +2777,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>89</v>
       </c>
@@ -2789,7 +2793,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>90</v>
       </c>
@@ -2805,7 +2809,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>152</v>
       </c>
@@ -2821,7 +2825,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>149</v>
       </c>
@@ -2837,7 +2841,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>91</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>158</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>157</v>
       </c>
@@ -2885,7 +2889,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>161</v>
       </c>
@@ -2901,7 +2905,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>164</v>
       </c>
@@ -2917,7 +2921,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>92</v>
       </c>
@@ -2933,7 +2937,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>93</v>
       </c>
@@ -2949,7 +2953,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>94</v>
       </c>
@@ -2965,7 +2969,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>95</v>
       </c>
@@ -2981,7 +2985,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>96</v>
       </c>
@@ -2997,7 +3001,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>97</v>
       </c>
@@ -3013,7 +3017,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>98</v>
       </c>
@@ -3029,7 +3033,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>165</v>
       </c>
@@ -3045,7 +3049,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>166</v>
       </c>
@@ -3061,7 +3065,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>167</v>
       </c>
@@ -3077,7 +3081,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>99</v>
       </c>
@@ -3093,7 +3097,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>100</v>
       </c>
@@ -3109,7 +3113,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>101</v>
       </c>
@@ -3125,7 +3129,7 @@
         <v>0.17600000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>102</v>
       </c>
@@ -3141,7 +3145,7 @@
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>103</v>
       </c>
@@ -3157,7 +3161,7 @@
         <v>0.11199999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>104</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>105</v>
       </c>
@@ -3189,7 +3193,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>106</v>
       </c>
@@ -3205,7 +3209,7 @@
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>107</v>
       </c>
@@ -3221,7 +3225,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>108</v>
       </c>
@@ -3237,7 +3241,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>109</v>
       </c>
@@ -3253,7 +3257,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>110</v>
       </c>
@@ -3269,7 +3273,7 @@
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>111</v>
       </c>
@@ -3285,7 +3289,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>112</v>
       </c>
@@ -3301,7 +3305,7 @@
         <v>7.400000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>113</v>
       </c>
@@ -3331,13 +3335,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="43" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="43" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>114</v>
       </c>
@@ -3468,7 +3472,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>

--- a/InputData/io-model/URPbIC/Union Representation Perc by ISIC Code.xlsx
+++ b/InputData/io-model/URPbIC/Union Representation Perc by ISIC Code.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/pa/io-model/urpbic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/io-model/urpbic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C81B01D-FEF0-F94A-A23B-05AF4B153BEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD3A5C7-79AC-F945-B9D7-FF512DA58169}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{111598D9-CA0B-488C-B665-0CB52396764C}"/>
   </bookViews>
